--- a/Nhom1_20521056_CoVua/Nhóm1_20521086_Cờ vua_Phân công công việc.xlsx
+++ b/Nhom1_20521056_CoVua/Nhóm1_20521086_Cờ vua_Phân công công việc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyanh\Desktop\Nhom1_20521056_CoVua\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tài liệu\CSharpProject_NT106.M21\Nhom1_20521056_CoVua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2375270-8921-4ADA-B068-57F85706A736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B9DCA-BADC-4E53-9CF1-BF9CB01624E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D059323B-531C-47C6-8AEA-E6566D7D9DF5}"/>
   </bookViews>
@@ -748,7 +748,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -857,10 +857,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="25"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
       <c r="I8" s="28">
         <v>1</v>
       </c>
@@ -884,8 +884,8 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" s="9" t="s">
@@ -1012,7 +1012,7 @@
   <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -1080,7 +1080,7 @@
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="20"/>
       <c r="I5" s="16" t="s">
         <v>15</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="18" t="s">
         <v>17</v>
       </c>

--- a/Nhom1_20521056_CoVua/Nhóm1_20521086_Cờ vua_Phân công công việc.xlsx
+++ b/Nhom1_20521056_CoVua/Nhóm1_20521086_Cờ vua_Phân công công việc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tài liệu\CSharpProject_NT106.M21\Nhom1_20521056_CoVua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B9DCA-BADC-4E53-9CF1-BF9CB01624E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BE5E73-798B-4CD2-BD88-C6F946FE0004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D059323B-531C-47C6-8AEA-E6566D7D9DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D059323B-531C-47C6-8AEA-E6566D7D9DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="PHÂN CÔNG CÔNG VIỆC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>CÔNG VIỆC</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Trách nhiệm làm việc</t>
+  </si>
+  <si>
+    <t>Thiết kế Server</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -329,11 +332,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -354,15 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -381,23 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,6 +423,39 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF07F573-5B32-4D31-BA91-2B424D40E002}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.45"/>
@@ -766,206 +791,211 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="32"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="I4" s="30" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+      <c r="I4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="31"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="I5" s="33">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="I5" s="23">
         <v>0</v>
       </c>
-      <c r="J5" s="34"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="I6" s="35" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="I6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="I7" s="37" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="I7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="I8" s="28">
+      <c r="C8" s="41"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="I8" s="18">
         <v>1</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="19"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="42"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="19"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
@@ -1011,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524F4A14-2A4F-4925-B314-D5CA87A43223}">
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1030,19 +1060,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="32"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1060,54 +1090,54 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="13"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="10"/>
+      <c r="I4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
-      <c r="I5" s="16" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="17" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="9"/>
+      <c r="I6" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="I7" s="18" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1121,21 +1151,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100EC2D0F278148E942919E5E50B2CE1002" ma:contentTypeVersion="8" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="4a218a567d60a46802fc69625c1e64f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b3dd761a-17fa-430a-b3a7-60aede42e57b" xmlns:ns4="191f001b-63df-4d49-aa15-0ce731e78454" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96b8335f9b7b18b5b5013670db86954b" ns3:_="" ns4:_="">
     <xsd:import namespace="b3dd761a-17fa-430a-b3a7-60aede42e57b"/>
@@ -1326,32 +1341,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE0361E-D16F-4688-B60B-F08A14C44109}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b3dd761a-17fa-430a-b3a7-60aede42e57b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="191f001b-63df-4d49-aa15-0ce731e78454"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F346EEE5-04B1-49CA-B0D7-B781553C8568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43F3B19F-5E7B-4E65-840B-FDB24A28F118}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1368,4 +1373,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F346EEE5-04B1-49CA-B0D7-B781553C8568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE0361E-D16F-4688-B60B-F08A14C44109}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b3dd761a-17fa-430a-b3a7-60aede42e57b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="191f001b-63df-4d49-aa15-0ce731e78454"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>